--- a/objetivos_e_refs - heuristica2  zcorte= 2.xlsx
+++ b/objetivos_e_refs - heuristica2  zcorte= 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fj428\Documents\GitHub\metaheuristicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846957EF-A047-4E06-B4D7-6E28731F31D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DB3EDB-104B-412B-AAE7-5701C2CD5A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="28">
   <si>
     <t>n</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Heuristica2-Estruturado.pynb (argsort)</t>
-  </si>
-  <si>
-    <t>lexsort</t>
   </si>
 </sst>
 </file>
@@ -206,52 +203,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="9">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -285,41 +255,6 @@
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -676,21 +611,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8336E0-137C-44F2-8A9A-8ECF625F53D4}">
-  <dimension ref="A1:AE72"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:25">
       <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
@@ -703,15 +639,9 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="C2" s="1">
         <v>0.2</v>
       </c>
@@ -737,36 +667,24 @@
         <v>0.8</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="R2" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="S2" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="T2" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="U2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="V2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="6">
+    <row r="3" spans="1:25">
+      <c r="A3" s="8">
         <v>10</v>
       </c>
       <c r="B3" s="1">
@@ -796,42 +714,30 @@
       <c r="L3">
         <v>818</v>
       </c>
-      <c r="N3">
-        <v>2183</v>
-      </c>
-      <c r="O3">
-        <v>1057</v>
-      </c>
-      <c r="P3">
-        <v>865</v>
-      </c>
-      <c r="Q3">
-        <v>865</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="Q3" t="s">
         <v>18</v>
       </c>
-      <c r="X3">
+      <c r="R3">
         <v>1</v>
       </c>
-      <c r="Y3">
+      <c r="S3">
         <v>2</v>
       </c>
-      <c r="Z3">
+      <c r="T3">
         <v>3</v>
       </c>
-      <c r="AA3">
+      <c r="U3">
         <v>4</v>
       </c>
-      <c r="AB3">
+      <c r="V3">
         <v>5</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="Y3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:25">
+      <c r="A4" s="8"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -859,39 +765,27 @@
       <c r="L4">
         <v>615</v>
       </c>
-      <c r="N4">
-        <v>1125</v>
-      </c>
-      <c r="O4">
-        <v>732.99999999999989</v>
-      </c>
-      <c r="P4">
-        <v>832</v>
-      </c>
-      <c r="Q4">
-        <v>832</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="X4">
+      <c r="R4">
         <v>1</v>
       </c>
-      <c r="Y4">
+      <c r="S4">
         <v>20</v>
       </c>
-      <c r="Z4">
+      <c r="T4">
         <v>5</v>
       </c>
-      <c r="AA4">
+      <c r="U4">
         <v>10</v>
       </c>
-      <c r="AB4">
+      <c r="V4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:25">
+      <c r="A5" s="8"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -919,39 +813,27 @@
       <c r="L5">
         <v>793</v>
       </c>
-      <c r="N5">
-        <v>1602</v>
-      </c>
-      <c r="O5">
-        <v>1190</v>
-      </c>
-      <c r="P5">
-        <v>805</v>
-      </c>
-      <c r="Q5">
-        <v>805</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="Q5" t="s">
         <v>20</v>
       </c>
-      <c r="X5">
+      <c r="R5">
         <v>10</v>
       </c>
-      <c r="Y5">
+      <c r="S5">
         <v>25</v>
       </c>
-      <c r="Z5">
+      <c r="T5">
         <v>5</v>
       </c>
-      <c r="AA5">
+      <c r="U5">
         <v>2</v>
       </c>
-      <c r="AB5">
+      <c r="V5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:25">
+      <c r="A6" s="8"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -979,53 +861,41 @@
       <c r="L6">
         <v>803</v>
       </c>
-      <c r="N6">
-        <v>2411</v>
-      </c>
-      <c r="O6">
-        <v>1251</v>
-      </c>
-      <c r="P6">
-        <v>1251</v>
-      </c>
-      <c r="Q6">
-        <v>1251</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="Q6" t="s">
         <v>21</v>
       </c>
-      <c r="X6">
+      <c r="R6">
         <v>1</v>
       </c>
-      <c r="Y6">
+      <c r="S6">
         <v>2</v>
       </c>
-      <c r="Z6">
+      <c r="T6">
         <v>3</v>
       </c>
-      <c r="AA6">
+      <c r="U6">
         <v>1</v>
       </c>
-      <c r="AB6">
+      <c r="V6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:25">
+      <c r="A7" s="8"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1220</v>
+        <v>1335</v>
       </c>
       <c r="D7">
-        <v>928.99999999999989</v>
+        <v>686</v>
       </c>
       <c r="E7">
-        <v>582.00000000000011</v>
+        <v>601.00000000000023</v>
       </c>
       <c r="F7">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="I7">
         <v>1187</v>
@@ -1039,21 +909,9 @@
       <c r="L7">
         <v>521</v>
       </c>
-      <c r="N7">
-        <v>1335</v>
-      </c>
-      <c r="O7">
-        <v>686</v>
-      </c>
-      <c r="P7">
-        <v>601.00000000000023</v>
-      </c>
-      <c r="Q7">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="6"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="8"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -1081,44 +939,32 @@
       <c r="L8">
         <v>755</v>
       </c>
-      <c r="N8">
-        <v>1640</v>
-      </c>
-      <c r="O8">
-        <v>922</v>
-      </c>
-      <c r="P8">
-        <v>922</v>
-      </c>
-      <c r="Q8">
-        <v>922</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="Q8" t="s">
         <v>22</v>
       </c>
-      <c r="X8">
-        <f>(X5-X4)/(X4+X5)</f>
+      <c r="R8">
+        <f>(R5-R4)/(R4+R5)</f>
         <v>0.81818181818181823</v>
       </c>
-      <c r="Y8">
-        <f t="shared" ref="Y8:AB8" si="0">(Y5-Y4)/(Y4+Y5)</f>
+      <c r="S8">
+        <f t="shared" ref="S8:V8" si="0">(S5-S4)/(S4+S5)</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="Z8">
+      <c r="T8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA8">
+      <c r="U8">
         <f t="shared" si="0"/>
         <v>-0.66666666666666663</v>
       </c>
-      <c r="AB8">
+      <c r="V8">
         <f t="shared" si="0"/>
         <v>-0.81818181818181823</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:25">
+      <c r="A9" s="8"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1146,35 +992,23 @@
       <c r="L9">
         <v>1083</v>
       </c>
-      <c r="N9">
-        <v>2271</v>
-      </c>
-      <c r="O9">
-        <v>1575</v>
-      </c>
-      <c r="P9">
-        <v>1330</v>
-      </c>
-      <c r="Q9">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="6"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="8"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1798</v>
+        <v>1912</v>
       </c>
       <c r="D10">
-        <v>1483</v>
+        <v>1563</v>
       </c>
       <c r="E10">
-        <v>995.00000000000011</v>
+        <v>1039</v>
       </c>
       <c r="F10">
-        <v>995</v>
+        <v>1039</v>
       </c>
       <c r="I10">
         <v>1720</v>
@@ -1188,21 +1022,9 @@
       <c r="L10">
         <v>540</v>
       </c>
-      <c r="N10">
-        <v>1912</v>
-      </c>
-      <c r="O10">
-        <v>1563</v>
-      </c>
-      <c r="P10">
-        <v>1039</v>
-      </c>
-      <c r="Q10">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="6"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="8"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1230,21 +1052,9 @@
       <c r="L11">
         <v>554</v>
       </c>
-      <c r="N11">
-        <v>1688</v>
-      </c>
-      <c r="O11">
-        <v>904</v>
-      </c>
-      <c r="P11">
-        <v>581.99999999999989</v>
-      </c>
-      <c r="Q11">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="6"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="8"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1272,21 +1082,9 @@
       <c r="L12">
         <v>671</v>
       </c>
-      <c r="N12">
-        <v>2009</v>
-      </c>
-      <c r="O12">
-        <v>1333</v>
-      </c>
-      <c r="P12">
-        <v>935</v>
-      </c>
-      <c r="Q12">
-        <v>935.00000000000023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="6">
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="8">
         <v>20</v>
       </c>
       <c r="B13" s="1">
@@ -1316,21 +1114,9 @@
       <c r="L13">
         <v>2986</v>
       </c>
-      <c r="N13">
-        <v>4554</v>
-      </c>
-      <c r="O13">
-        <v>3104</v>
-      </c>
-      <c r="P13">
-        <v>3120</v>
-      </c>
-      <c r="Q13">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="6"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="8"/>
       <c r="B14" s="1">
         <v>2</v>
       </c>
@@ -1358,26 +1144,14 @@
       <c r="L14">
         <v>2980</v>
       </c>
-      <c r="N14">
-        <v>9025</v>
-      </c>
-      <c r="O14">
-        <v>5455</v>
-      </c>
-      <c r="P14">
-        <v>3754</v>
-      </c>
-      <c r="Q14">
-        <v>3754</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="6"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="8"/>
       <c r="B15" s="1">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>6869</v>
+        <v>6853</v>
       </c>
       <c r="D15">
         <v>4077</v>
@@ -1400,21 +1174,9 @@
       <c r="L15">
         <v>3600</v>
       </c>
-      <c r="N15">
-        <v>6853</v>
-      </c>
-      <c r="O15">
-        <v>4077</v>
-      </c>
-      <c r="P15">
-        <v>3756</v>
-      </c>
-      <c r="Q15">
-        <v>3756</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="6"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="8"/>
       <c r="B16" s="1">
         <v>4</v>
       </c>
@@ -1442,35 +1204,23 @@
       <c r="L16">
         <v>3040</v>
       </c>
-      <c r="N16">
-        <v>9909</v>
-      </c>
-      <c r="O16">
-        <v>5331</v>
-      </c>
-      <c r="P16">
-        <v>3574</v>
-      </c>
-      <c r="Q16">
-        <v>3574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="6"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="8"/>
       <c r="B17" s="1">
         <v>5</v>
       </c>
       <c r="C17">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="D17">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="E17">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="F17">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="I17">
         <v>4340</v>
@@ -1484,21 +1234,9 @@
       <c r="L17">
         <v>2206</v>
       </c>
-      <c r="N17">
-        <v>4457</v>
-      </c>
-      <c r="O17">
-        <v>2767</v>
-      </c>
-      <c r="P17">
-        <v>2503</v>
-      </c>
-      <c r="Q17">
-        <v>2503</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="6"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="8"/>
       <c r="B18" s="1">
         <v>6</v>
       </c>
@@ -1526,21 +1264,9 @@
       <c r="L18">
         <v>3016</v>
       </c>
-      <c r="N18">
-        <v>6622</v>
-      </c>
-      <c r="O18">
-        <v>3898</v>
-      </c>
-      <c r="P18">
-        <v>3304</v>
-      </c>
-      <c r="Q18">
-        <v>3304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="6"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="8"/>
       <c r="B19" s="1">
         <v>7</v>
       </c>
@@ -1568,21 +1294,9 @@
       <c r="L19">
         <v>3900</v>
       </c>
-      <c r="N19">
-        <v>10601</v>
-      </c>
-      <c r="O19">
-        <v>6529</v>
-      </c>
-      <c r="P19">
-        <v>5656</v>
-      </c>
-      <c r="Q19">
-        <v>5656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="6"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="8"/>
       <c r="B20" s="1">
         <v>8</v>
       </c>
@@ -1610,21 +1324,9 @@
       <c r="L20">
         <v>1638</v>
       </c>
-      <c r="N20">
-        <v>4211</v>
-      </c>
-      <c r="O20">
-        <v>2485</v>
-      </c>
-      <c r="P20">
-        <v>1717</v>
-      </c>
-      <c r="Q20">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="6"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="8"/>
       <c r="B21" s="1">
         <v>9</v>
       </c>
@@ -1632,13 +1334,13 @@
         <v>4045</v>
       </c>
       <c r="D21">
-        <v>2156</v>
+        <v>2116</v>
       </c>
       <c r="E21">
-        <v>2028</v>
+        <v>2004</v>
       </c>
       <c r="F21">
-        <v>2028</v>
+        <v>2004</v>
       </c>
       <c r="I21">
         <v>3530</v>
@@ -1652,35 +1354,23 @@
       <c r="L21">
         <v>1992</v>
       </c>
-      <c r="N21">
-        <v>4045</v>
-      </c>
-      <c r="O21">
-        <v>2116</v>
-      </c>
-      <c r="P21">
-        <v>2004</v>
-      </c>
-      <c r="Q21">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="6"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="8"/>
       <c r="B22" s="1">
         <v>10</v>
       </c>
       <c r="C22">
-        <v>5120</v>
+        <v>5290</v>
       </c>
       <c r="D22">
-        <v>3216</v>
+        <v>3299</v>
       </c>
       <c r="E22">
-        <v>2331</v>
+        <v>2360</v>
       </c>
       <c r="F22">
-        <v>2331</v>
+        <v>2360</v>
       </c>
       <c r="I22">
         <v>5545</v>
@@ -1694,37 +1384,25 @@
       <c r="L22">
         <v>1995</v>
       </c>
-      <c r="N22">
-        <v>5290</v>
-      </c>
-      <c r="O22">
-        <v>3299</v>
-      </c>
-      <c r="P22">
-        <v>2360</v>
-      </c>
-      <c r="Q22">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="6">
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="8">
         <v>50</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>42719</v>
+        <v>41490</v>
       </c>
       <c r="D23">
-        <v>24469</v>
+        <v>24782</v>
       </c>
       <c r="E23">
-        <v>20229</v>
+        <v>20426</v>
       </c>
       <c r="F23">
-        <v>20229</v>
+        <v>20426</v>
       </c>
       <c r="I23">
         <v>42363</v>
@@ -1738,35 +1416,23 @@
       <c r="L23">
         <v>17990</v>
       </c>
-      <c r="N23">
-        <v>41490</v>
-      </c>
-      <c r="O23">
-        <v>24782</v>
-      </c>
-      <c r="P23">
-        <v>20426</v>
-      </c>
-      <c r="Q23">
-        <v>20426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="6"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="8"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24">
-        <v>31278</v>
+        <v>31857</v>
       </c>
       <c r="D24">
-        <v>18741</v>
+        <v>18228</v>
       </c>
       <c r="E24">
-        <v>16607</v>
+        <v>16154</v>
       </c>
       <c r="F24">
-        <v>16607</v>
+        <v>16154</v>
       </c>
       <c r="I24">
         <v>33637</v>
@@ -1780,35 +1446,23 @@
       <c r="L24">
         <v>14132</v>
       </c>
-      <c r="N24">
-        <v>31857</v>
-      </c>
-      <c r="O24">
-        <v>18228</v>
-      </c>
-      <c r="P24">
-        <v>16154</v>
-      </c>
-      <c r="Q24">
-        <v>16154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="6"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="8"/>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>34471</v>
+        <v>35888</v>
       </c>
       <c r="D25">
-        <v>21074</v>
+        <v>21341</v>
       </c>
       <c r="E25">
-        <v>16881</v>
+        <v>17044</v>
       </c>
       <c r="F25">
-        <v>16881</v>
+        <v>17044</v>
       </c>
       <c r="I25">
         <v>37641</v>
@@ -1822,35 +1476,23 @@
       <c r="L25">
         <v>16497</v>
       </c>
-      <c r="N25">
-        <v>35888</v>
-      </c>
-      <c r="O25">
-        <v>21341</v>
-      </c>
-      <c r="P25">
-        <v>17044</v>
-      </c>
-      <c r="Q25">
-        <v>17044</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="6"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="8"/>
       <c r="B26" s="1">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>28745</v>
+        <v>28069</v>
       </c>
       <c r="D26">
-        <v>17116</v>
+        <v>17601</v>
       </c>
       <c r="E26">
-        <v>14796</v>
+        <v>15113</v>
       </c>
       <c r="F26">
-        <v>14796</v>
+        <v>15113</v>
       </c>
       <c r="I26">
         <v>30166</v>
@@ -1864,21 +1506,9 @@
       <c r="L26">
         <v>14105</v>
       </c>
-      <c r="N26">
-        <v>28069</v>
-      </c>
-      <c r="O26">
-        <v>17601</v>
-      </c>
-      <c r="P26">
-        <v>15113</v>
-      </c>
-      <c r="Q26">
-        <v>15113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="6"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="8"/>
       <c r="B27" s="1">
         <v>5</v>
       </c>
@@ -1906,21 +1536,9 @@
       <c r="L27">
         <v>14650</v>
       </c>
-      <c r="N27">
-        <v>32667</v>
-      </c>
-      <c r="O27">
-        <v>18481</v>
-      </c>
-      <c r="P27">
-        <v>15022</v>
-      </c>
-      <c r="Q27">
-        <v>15022</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="6"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="8"/>
       <c r="B28" s="1">
         <v>6</v>
       </c>
@@ -1928,7 +1546,7 @@
         <v>36235</v>
       </c>
       <c r="D28">
-        <v>21648</v>
+        <v>20703</v>
       </c>
       <c r="E28">
         <v>16610</v>
@@ -1948,21 +1566,9 @@
       <c r="L28">
         <v>14075</v>
       </c>
-      <c r="N28">
-        <v>36235</v>
-      </c>
-      <c r="O28">
-        <v>20703</v>
-      </c>
-      <c r="P28">
-        <v>16610</v>
-      </c>
-      <c r="Q28">
-        <v>16610</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="6"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="8"/>
       <c r="B29" s="1">
         <v>7</v>
       </c>
@@ -1990,21 +1596,9 @@
       <c r="L29">
         <v>17715</v>
       </c>
-      <c r="N29">
-        <v>44996</v>
-      </c>
-      <c r="O29">
-        <v>23376</v>
-      </c>
-      <c r="P29">
-        <v>20470</v>
-      </c>
-      <c r="Q29">
-        <v>20470</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="6"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="8"/>
       <c r="B30" s="1">
         <v>8</v>
       </c>
@@ -2032,21 +1626,9 @@
       <c r="L30">
         <v>21367</v>
       </c>
-      <c r="N30">
-        <v>44414</v>
-      </c>
-      <c r="O30">
-        <v>25764</v>
-      </c>
-      <c r="P30">
-        <v>22798</v>
-      </c>
-      <c r="Q30">
-        <v>22798</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="6"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="8"/>
       <c r="B31" s="1">
         <v>9</v>
       </c>
@@ -2074,21 +1656,9 @@
       <c r="L31">
         <v>13952</v>
       </c>
-      <c r="N31">
-        <v>34496</v>
-      </c>
-      <c r="O31">
-        <v>21334</v>
-      </c>
-      <c r="P31">
-        <v>15991</v>
-      </c>
-      <c r="Q31">
-        <v>15991</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="6"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="8"/>
       <c r="B32" s="1">
         <v>10</v>
       </c>
@@ -2116,37 +1686,25 @@
       <c r="L32">
         <v>14377</v>
       </c>
-      <c r="N32">
-        <v>33489</v>
-      </c>
-      <c r="O32">
-        <v>19617</v>
-      </c>
-      <c r="P32">
-        <v>15609</v>
-      </c>
-      <c r="Q32">
-        <v>15609</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="6">
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="8">
         <v>100</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>148087</v>
+        <v>147531</v>
       </c>
       <c r="D33">
-        <v>88335</v>
+        <v>88599</v>
       </c>
       <c r="E33">
-        <v>74379</v>
+        <v>75899</v>
       </c>
       <c r="F33">
-        <v>74379</v>
+        <v>75899</v>
       </c>
       <c r="I33">
         <v>156103</v>
@@ -2160,35 +1718,23 @@
       <c r="L33">
         <v>72019</v>
       </c>
-      <c r="N33">
-        <v>147531</v>
-      </c>
-      <c r="O33">
-        <v>88599</v>
-      </c>
-      <c r="P33">
-        <v>75899</v>
-      </c>
-      <c r="Q33">
-        <v>75899</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="6"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="8"/>
       <c r="B34" s="1">
         <v>2</v>
       </c>
       <c r="C34">
-        <v>127623</v>
+        <v>127624</v>
       </c>
       <c r="D34">
-        <v>74884</v>
+        <v>74885</v>
       </c>
       <c r="E34">
-        <v>62201</v>
+        <v>62202</v>
       </c>
       <c r="F34">
-        <v>62200.999999999993</v>
+        <v>62201.999999999993</v>
       </c>
       <c r="I34">
         <v>132605</v>
@@ -2202,35 +1748,23 @@
       <c r="L34">
         <v>59351</v>
       </c>
-      <c r="N34">
-        <v>127624</v>
-      </c>
-      <c r="O34">
-        <v>74885</v>
-      </c>
-      <c r="P34">
-        <v>62202</v>
-      </c>
-      <c r="Q34">
-        <v>62201.999999999993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="6"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="8"/>
       <c r="B35" s="1">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>133942</v>
+        <v>131875</v>
       </c>
       <c r="D35">
-        <v>82326</v>
+        <v>81368</v>
       </c>
       <c r="E35">
-        <v>74240</v>
+        <v>75599</v>
       </c>
       <c r="F35">
-        <v>74240</v>
+        <v>75599</v>
       </c>
       <c r="I35">
         <v>137463</v>
@@ -2244,21 +1778,9 @@
       <c r="L35">
         <v>68537</v>
       </c>
-      <c r="N35">
-        <v>131875</v>
-      </c>
-      <c r="O35">
-        <v>81368</v>
-      </c>
-      <c r="P35">
-        <v>75599</v>
-      </c>
-      <c r="Q35">
-        <v>75599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="6"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="8"/>
       <c r="B36" s="1">
         <v>4</v>
       </c>
@@ -2286,35 +1808,23 @@
       <c r="L36">
         <v>69231</v>
       </c>
-      <c r="N36">
-        <v>131662</v>
-      </c>
-      <c r="O36">
-        <v>81104</v>
-      </c>
-      <c r="P36">
-        <v>71579</v>
-      </c>
-      <c r="Q36">
-        <v>71579</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="6"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="8"/>
       <c r="B37" s="1">
         <v>5</v>
       </c>
       <c r="C37">
-        <v>125398</v>
+        <v>126203</v>
       </c>
       <c r="D37">
-        <v>72374</v>
+        <v>72986</v>
       </c>
       <c r="E37">
-        <v>61437</v>
+        <v>60580</v>
       </c>
       <c r="F37">
-        <v>61437</v>
+        <v>60580</v>
       </c>
       <c r="I37">
         <v>136761</v>
@@ -2328,35 +1838,23 @@
       <c r="L37">
         <v>55277</v>
       </c>
-      <c r="N37">
-        <v>126203</v>
-      </c>
-      <c r="O37">
-        <v>72986</v>
-      </c>
-      <c r="P37">
-        <v>60580</v>
-      </c>
-      <c r="Q37">
-        <v>60580</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="6"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="8"/>
       <c r="B38" s="1">
         <v>6</v>
       </c>
       <c r="C38">
-        <v>140027</v>
+        <v>142234</v>
       </c>
       <c r="D38">
-        <v>79856.999999999985</v>
+        <v>79313.999999999985</v>
       </c>
       <c r="E38">
-        <v>71119</v>
+        <v>70663</v>
       </c>
       <c r="F38">
-        <v>71119</v>
+        <v>70663</v>
       </c>
       <c r="I38">
         <v>151938</v>
@@ -2370,35 +1868,23 @@
       <c r="L38">
         <v>62519</v>
       </c>
-      <c r="N38">
-        <v>142234</v>
-      </c>
-      <c r="O38">
-        <v>79313.999999999985</v>
-      </c>
-      <c r="P38">
-        <v>70663</v>
-      </c>
-      <c r="Q38">
-        <v>70663</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="6"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="8"/>
       <c r="B39" s="1">
         <v>7</v>
       </c>
       <c r="C39">
-        <v>135788</v>
+        <v>136839</v>
       </c>
       <c r="D39">
-        <v>79572</v>
+        <v>79302</v>
       </c>
       <c r="E39">
-        <v>69417</v>
+        <v>69247</v>
       </c>
       <c r="F39">
-        <v>69417.000000000015</v>
+        <v>69247.000000000015</v>
       </c>
       <c r="I39">
         <v>141613</v>
@@ -2412,29 +1898,17 @@
       <c r="L39">
         <v>62213</v>
       </c>
-      <c r="N39">
-        <v>136839</v>
-      </c>
-      <c r="O39">
-        <v>79302</v>
-      </c>
-      <c r="P39">
-        <v>69247</v>
-      </c>
-      <c r="Q39">
-        <v>69247.000000000015</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="6"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="8"/>
       <c r="B40" s="1">
         <v>8</v>
       </c>
       <c r="C40">
-        <v>165585</v>
+        <v>165404</v>
       </c>
       <c r="D40">
-        <v>98513</v>
+        <v>98305</v>
       </c>
       <c r="E40">
         <v>82339</v>
@@ -2454,21 +1928,9 @@
       <c r="L40">
         <v>80844</v>
       </c>
-      <c r="N40">
-        <v>165404</v>
-      </c>
-      <c r="O40">
-        <v>98305</v>
-      </c>
-      <c r="P40">
-        <v>82339</v>
-      </c>
-      <c r="Q40">
-        <v>82339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="6"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="8"/>
       <c r="B41" s="1">
         <v>9</v>
       </c>
@@ -2476,13 +1938,13 @@
         <v>119006</v>
       </c>
       <c r="D41">
-        <v>70782</v>
+        <v>71203</v>
       </c>
       <c r="E41">
-        <v>64163</v>
+        <v>63855</v>
       </c>
       <c r="F41">
-        <v>64163</v>
+        <v>63855</v>
       </c>
       <c r="I41">
         <v>125153</v>
@@ -2496,35 +1958,23 @@
       <c r="L41">
         <v>58771</v>
       </c>
-      <c r="N41">
-        <v>119006</v>
-      </c>
-      <c r="O41">
-        <v>71203</v>
-      </c>
-      <c r="P41">
-        <v>63855</v>
-      </c>
-      <c r="Q41">
-        <v>63855</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="6"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="8"/>
       <c r="B42" s="1">
         <v>10</v>
       </c>
       <c r="C42">
-        <v>120309</v>
+        <v>119887</v>
       </c>
       <c r="D42">
-        <v>74170</v>
+        <v>73081</v>
       </c>
       <c r="E42">
-        <v>63266</v>
+        <v>63536</v>
       </c>
       <c r="F42">
-        <v>63266</v>
+        <v>63536</v>
       </c>
       <c r="I42">
         <v>124446</v>
@@ -2538,37 +1988,25 @@
       <c r="L42">
         <v>61419</v>
       </c>
-      <c r="N42">
-        <v>119887</v>
-      </c>
-      <c r="O42">
-        <v>73081</v>
-      </c>
-      <c r="P42">
-        <v>63536</v>
-      </c>
-      <c r="Q42">
-        <v>63536</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="6">
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="8">
         <v>200</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>504459</v>
+        <v>504111</v>
       </c>
       <c r="D43">
-        <v>300525</v>
+        <v>300804</v>
       </c>
       <c r="E43">
-        <v>261576</v>
+        <v>261855</v>
       </c>
       <c r="F43">
-        <v>261576</v>
+        <v>261855</v>
       </c>
       <c r="I43">
         <v>526666</v>
@@ -2582,35 +2020,23 @@
       <c r="L43">
         <v>254268</v>
       </c>
-      <c r="N43">
-        <v>504111</v>
-      </c>
-      <c r="O43">
-        <v>300804</v>
-      </c>
-      <c r="P43">
-        <v>261855</v>
-      </c>
-      <c r="Q43">
-        <v>261855</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="6"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="8"/>
       <c r="B44" s="1">
         <v>2</v>
       </c>
       <c r="C44">
-        <v>547305</v>
+        <v>547090</v>
       </c>
       <c r="D44">
-        <v>325036</v>
+        <v>324875</v>
       </c>
       <c r="E44">
-        <v>278828</v>
+        <v>280568</v>
       </c>
       <c r="F44">
-        <v>278828</v>
+        <v>280568</v>
       </c>
       <c r="I44">
         <v>566643</v>
@@ -2624,35 +2050,23 @@
       <c r="L44">
         <v>266028</v>
       </c>
-      <c r="N44">
-        <v>547090</v>
-      </c>
-      <c r="O44">
-        <v>324875</v>
-      </c>
-      <c r="P44">
-        <v>280568</v>
-      </c>
-      <c r="Q44">
-        <v>280568</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="6"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="8"/>
       <c r="B45" s="1">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>492526</v>
+        <v>491876</v>
       </c>
       <c r="D45">
-        <v>299645</v>
+        <v>298507</v>
       </c>
       <c r="E45">
-        <v>266057</v>
+        <v>265255</v>
       </c>
       <c r="F45">
-        <v>266057</v>
+        <v>265255</v>
       </c>
       <c r="I45">
         <v>529919</v>
@@ -2666,35 +2080,23 @@
       <c r="L45">
         <v>254647</v>
       </c>
-      <c r="N45">
-        <v>491876</v>
-      </c>
-      <c r="O45">
-        <v>298507</v>
-      </c>
-      <c r="P45">
-        <v>265255</v>
-      </c>
-      <c r="Q45">
-        <v>265255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="6"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="8"/>
       <c r="B46" s="1">
         <v>4</v>
       </c>
       <c r="C46">
-        <v>590390</v>
+        <v>588635</v>
       </c>
       <c r="D46">
-        <v>361209</v>
+        <v>359608</v>
       </c>
       <c r="E46">
-        <v>306919</v>
+        <v>307475</v>
       </c>
       <c r="F46">
-        <v>306918.99999999988</v>
+        <v>307475</v>
       </c>
       <c r="I46">
         <v>603709</v>
@@ -2708,35 +2110,23 @@
       <c r="L46">
         <v>297269</v>
       </c>
-      <c r="N46">
-        <v>588635</v>
-      </c>
-      <c r="O46">
-        <v>359608</v>
-      </c>
-      <c r="P46">
-        <v>307475</v>
-      </c>
-      <c r="Q46">
-        <v>307475</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="6"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="8"/>
       <c r="B47" s="1">
         <v>5</v>
       </c>
       <c r="C47">
-        <v>520988</v>
+        <v>522230</v>
       </c>
       <c r="D47">
-        <v>311834</v>
+        <v>311841</v>
       </c>
       <c r="E47">
-        <v>266355</v>
+        <v>266362</v>
       </c>
       <c r="F47">
-        <v>266355</v>
+        <v>266362</v>
       </c>
       <c r="I47">
         <v>547953</v>
@@ -2750,35 +2140,23 @@
       <c r="L47">
         <v>260455</v>
       </c>
-      <c r="N47">
-        <v>522230</v>
-      </c>
-      <c r="O47">
-        <v>311841</v>
-      </c>
-      <c r="P47">
-        <v>266362</v>
-      </c>
-      <c r="Q47">
-        <v>266362</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="6"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="8"/>
       <c r="B48" s="1">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>482664</v>
+        <v>484723</v>
       </c>
       <c r="D48">
-        <v>285248</v>
+        <v>285341</v>
       </c>
       <c r="E48">
-        <v>244148</v>
+        <v>244388</v>
       </c>
       <c r="F48">
-        <v>244148</v>
+        <v>244388</v>
       </c>
       <c r="I48">
         <v>502276</v>
@@ -2792,35 +2170,23 @@
       <c r="L48">
         <v>236160</v>
       </c>
-      <c r="N48">
-        <v>484723</v>
-      </c>
-      <c r="O48">
-        <v>285341</v>
-      </c>
-      <c r="P48">
-        <v>244388</v>
-      </c>
-      <c r="Q48">
-        <v>244388</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="6"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="8"/>
       <c r="B49" s="1">
         <v>7</v>
       </c>
       <c r="C49">
-        <v>460673</v>
+        <v>456562</v>
       </c>
       <c r="D49">
-        <v>276555</v>
+        <v>277317</v>
       </c>
       <c r="E49">
-        <v>258985</v>
+        <v>256817</v>
       </c>
       <c r="F49">
-        <v>258985</v>
+        <v>256817</v>
       </c>
       <c r="I49">
         <v>479651</v>
@@ -2834,35 +2200,23 @@
       <c r="L49">
         <v>247555</v>
       </c>
-      <c r="N49">
-        <v>456562</v>
-      </c>
-      <c r="O49">
-        <v>277317</v>
-      </c>
-      <c r="P49">
-        <v>256817</v>
-      </c>
-      <c r="Q49">
-        <v>256817</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="6"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="8"/>
       <c r="B50" s="1">
         <v>8</v>
       </c>
       <c r="C50">
-        <v>495868</v>
+        <v>498776</v>
       </c>
       <c r="D50">
-        <v>285225</v>
+        <v>281349</v>
       </c>
       <c r="E50">
-        <v>241180</v>
+        <v>238943</v>
       </c>
       <c r="F50">
-        <v>241180</v>
+        <v>238943</v>
       </c>
       <c r="I50">
         <v>530896</v>
@@ -2876,35 +2230,23 @@
       <c r="L50">
         <v>225572</v>
       </c>
-      <c r="N50">
-        <v>498776</v>
-      </c>
-      <c r="O50">
-        <v>281349</v>
-      </c>
-      <c r="P50">
-        <v>238943</v>
-      </c>
-      <c r="Q50">
-        <v>238943</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="6"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="8"/>
       <c r="B51" s="1">
         <v>9</v>
       </c>
       <c r="C51">
-        <v>538231</v>
+        <v>538030</v>
       </c>
       <c r="D51">
-        <v>320432</v>
+        <v>319277</v>
       </c>
       <c r="E51">
-        <v>264231</v>
+        <v>264007</v>
       </c>
       <c r="F51">
-        <v>264231</v>
+        <v>264007</v>
       </c>
       <c r="I51">
         <v>575353</v>
@@ -2918,35 +2260,23 @@
       <c r="L51">
         <v>255029</v>
       </c>
-      <c r="N51">
-        <v>538030</v>
-      </c>
-      <c r="O51">
-        <v>319277</v>
-      </c>
-      <c r="P51">
-        <v>264007</v>
-      </c>
-      <c r="Q51">
-        <v>264007</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="6"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="8"/>
       <c r="B52" s="1">
         <v>10</v>
       </c>
       <c r="C52">
-        <v>542728</v>
+        <v>544185</v>
       </c>
       <c r="D52">
-        <v>327149</v>
+        <v>326685</v>
       </c>
       <c r="E52">
-        <v>290598</v>
+        <v>290900</v>
       </c>
       <c r="F52">
-        <v>290598</v>
+        <v>290900</v>
       </c>
       <c r="I52">
         <v>572866</v>
@@ -2960,37 +2290,25 @@
       <c r="L52">
         <v>269236</v>
       </c>
-      <c r="N52">
-        <v>544185</v>
-      </c>
-      <c r="O52">
-        <v>326685</v>
-      </c>
-      <c r="P52">
-        <v>290900</v>
-      </c>
-      <c r="Q52">
-        <v>290900</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="6">
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="8">
         <v>500</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>2985331</v>
+        <v>2984092</v>
       </c>
       <c r="D53">
-        <v>1837518</v>
+        <v>1832960</v>
       </c>
       <c r="E53">
-        <v>1617377</v>
+        <v>1616362</v>
       </c>
       <c r="F53">
-        <v>1617377</v>
+        <v>1616362</v>
       </c>
       <c r="I53">
         <v>3113088</v>
@@ -3004,35 +2322,23 @@
       <c r="L53">
         <v>1581233</v>
       </c>
-      <c r="N53">
-        <v>2984092</v>
-      </c>
-      <c r="O53">
-        <v>1832960</v>
-      </c>
-      <c r="P53">
-        <v>1616362</v>
-      </c>
-      <c r="Q53">
-        <v>1616362</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="6"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="8"/>
       <c r="B54" s="1">
         <v>2</v>
       </c>
       <c r="C54">
-        <v>3407341</v>
+        <v>3407616</v>
       </c>
       <c r="D54">
-        <v>2018956</v>
+        <v>2016283</v>
       </c>
       <c r="E54">
-        <v>1769394</v>
+        <v>1770039</v>
       </c>
       <c r="F54">
-        <v>1769394</v>
+        <v>1770039</v>
       </c>
       <c r="I54">
         <v>3569058</v>
@@ -3046,35 +2352,23 @@
       <c r="L54">
         <v>1715322</v>
       </c>
-      <c r="N54">
-        <v>3407616</v>
-      </c>
-      <c r="O54">
-        <v>2016283</v>
-      </c>
-      <c r="P54">
-        <v>1770039</v>
-      </c>
-      <c r="Q54">
-        <v>1770039</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="6"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="8"/>
       <c r="B55" s="1">
         <v>3</v>
       </c>
       <c r="C55">
-        <v>3147973</v>
+        <v>3146317</v>
       </c>
       <c r="D55">
-        <v>1895204</v>
+        <v>1883723</v>
       </c>
       <c r="E55">
-        <v>1659393</v>
+        <v>1662877</v>
       </c>
       <c r="F55">
-        <v>1659393</v>
+        <v>1662877</v>
       </c>
       <c r="I55">
         <v>3300744</v>
@@ -3088,35 +2382,23 @@
       <c r="L55">
         <v>1644947</v>
       </c>
-      <c r="N55">
-        <v>3146317</v>
-      </c>
-      <c r="O55">
-        <v>1883723</v>
-      </c>
-      <c r="P55">
-        <v>1662877</v>
-      </c>
-      <c r="Q55">
-        <v>1662877</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="6"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="8"/>
       <c r="B56" s="1">
         <v>4</v>
       </c>
       <c r="C56">
-        <v>3256118</v>
+        <v>3251992</v>
       </c>
       <c r="D56">
-        <v>1906027</v>
+        <v>1904782</v>
       </c>
       <c r="E56">
-        <v>1682612</v>
+        <v>1683510</v>
       </c>
       <c r="F56">
-        <v>1682612</v>
+        <v>1683510</v>
       </c>
       <c r="I56">
         <v>3408867</v>
@@ -3130,35 +2412,23 @@
       <c r="L56">
         <v>1640942</v>
       </c>
-      <c r="N56">
-        <v>3251992</v>
-      </c>
-      <c r="O56">
-        <v>1904782</v>
-      </c>
-      <c r="P56">
-        <v>1683510</v>
-      </c>
-      <c r="Q56">
-        <v>1683510</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="6"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="8"/>
       <c r="B57" s="1">
         <v>5</v>
       </c>
       <c r="C57">
-        <v>3156932</v>
+        <v>3146442</v>
       </c>
       <c r="D57">
-        <v>1836227</v>
+        <v>1839713</v>
       </c>
       <c r="E57">
-        <v>1521967</v>
+        <v>1526531</v>
       </c>
       <c r="F57">
-        <v>1521967</v>
+        <v>1526531</v>
       </c>
       <c r="I57">
         <v>3377547</v>
@@ -3172,35 +2442,23 @@
       <c r="L57">
         <v>1468325</v>
       </c>
-      <c r="N57">
-        <v>3146442</v>
-      </c>
-      <c r="O57">
-        <v>1839713</v>
-      </c>
-      <c r="P57">
-        <v>1526531</v>
-      </c>
-      <c r="Q57">
-        <v>1526531</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="6"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="8"/>
       <c r="B58" s="1">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>2834837</v>
+        <v>2834855</v>
       </c>
       <c r="D58">
-        <v>1635682</v>
+        <v>1637588</v>
       </c>
       <c r="E58">
-        <v>1437066</v>
+        <v>1438940</v>
       </c>
       <c r="F58">
-        <v>1437066</v>
+        <v>1438940</v>
       </c>
       <c r="I58">
         <v>3024082</v>
@@ -3214,35 +2472,23 @@
       <c r="L58">
         <v>1413345</v>
       </c>
-      <c r="N58">
-        <v>2834855</v>
-      </c>
-      <c r="O58">
-        <v>1637588</v>
-      </c>
-      <c r="P58">
-        <v>1438940</v>
-      </c>
-      <c r="Q58">
-        <v>1438940</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="6"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="8"/>
       <c r="B59" s="1">
         <v>7</v>
       </c>
       <c r="C59">
-        <v>3209714</v>
+        <v>3211005</v>
       </c>
       <c r="D59">
-        <v>1948283</v>
+        <v>1945776</v>
       </c>
       <c r="E59">
-        <v>1664992</v>
+        <v>1666490</v>
       </c>
       <c r="F59">
-        <v>1664992</v>
+        <v>1666490</v>
       </c>
       <c r="I59">
         <v>3381166</v>
@@ -3256,35 +2502,23 @@
       <c r="L59">
         <v>1634912</v>
       </c>
-      <c r="N59">
-        <v>3211005</v>
-      </c>
-      <c r="O59">
-        <v>1945776</v>
-      </c>
-      <c r="P59">
-        <v>1666490</v>
-      </c>
-      <c r="Q59">
-        <v>1666490</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="6"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="8"/>
       <c r="B60" s="1">
         <v>8</v>
       </c>
       <c r="C60">
-        <v>3149629</v>
+        <v>3147061</v>
       </c>
       <c r="D60">
-        <v>1838102</v>
+        <v>1836967</v>
       </c>
       <c r="E60">
-        <v>1602625</v>
+        <v>1605530</v>
       </c>
       <c r="F60">
-        <v>1602625</v>
+        <v>1605530</v>
       </c>
       <c r="I60">
         <v>3376678</v>
@@ -3298,35 +2532,23 @@
       <c r="L60">
         <v>1542090</v>
       </c>
-      <c r="N60">
-        <v>3147061</v>
-      </c>
-      <c r="O60">
-        <v>1836967</v>
-      </c>
-      <c r="P60">
-        <v>1605530</v>
-      </c>
-      <c r="Q60">
-        <v>1605530</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="6"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="8"/>
       <c r="B61" s="1">
         <v>9</v>
       </c>
       <c r="C61">
-        <v>3414900</v>
+        <v>3409192</v>
       </c>
       <c r="D61">
-        <v>2009599</v>
+        <v>2008494</v>
       </c>
       <c r="E61">
-        <v>1724442</v>
+        <v>1733258</v>
       </c>
       <c r="F61">
-        <v>1724442</v>
+        <v>1733258</v>
       </c>
       <c r="I61">
         <v>3617807</v>
@@ -3340,35 +2562,23 @@
       <c r="L61">
         <v>1684055</v>
       </c>
-      <c r="N61">
-        <v>3409192</v>
-      </c>
-      <c r="O61">
-        <v>2008494</v>
-      </c>
-      <c r="P61">
-        <v>1733258</v>
-      </c>
-      <c r="Q61">
-        <v>1733258</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="6"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="8"/>
       <c r="B62" s="1">
         <v>10</v>
       </c>
       <c r="C62">
-        <v>3163746</v>
+        <v>3162695</v>
       </c>
       <c r="D62">
-        <v>1873156</v>
+        <v>1868499</v>
       </c>
       <c r="E62">
-        <v>1553853</v>
+        <v>1554364</v>
       </c>
       <c r="F62">
-        <v>1553853</v>
+        <v>1554364</v>
       </c>
       <c r="I62">
         <v>3315019</v>
@@ -3382,37 +2592,25 @@
       <c r="L62">
         <v>1520515</v>
       </c>
-      <c r="N62">
-        <v>3162695</v>
-      </c>
-      <c r="O62">
-        <v>1868499</v>
-      </c>
-      <c r="P62">
-        <v>1554364</v>
-      </c>
-      <c r="Q62">
-        <v>1554364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="6">
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="8">
         <v>1000</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>14168789</v>
+        <v>14183983</v>
       </c>
       <c r="D63">
-        <v>8214513</v>
+        <v>8215920</v>
       </c>
       <c r="E63">
-        <v>6795971</v>
+        <v>6802648</v>
       </c>
       <c r="F63">
-        <v>6795971</v>
+        <v>6802648</v>
       </c>
       <c r="I63">
         <v>15190371</v>
@@ -3426,35 +2624,23 @@
       <c r="L63">
         <v>6411581</v>
       </c>
-      <c r="N63">
-        <v>14183983</v>
-      </c>
-      <c r="O63">
-        <v>8215920</v>
-      </c>
-      <c r="P63">
-        <v>6802648</v>
-      </c>
-      <c r="Q63">
-        <v>6802648</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="6"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="8"/>
       <c r="B64" s="1">
         <v>2</v>
       </c>
       <c r="C64">
-        <v>12405419</v>
+        <v>12404145</v>
       </c>
       <c r="D64">
-        <v>7399648</v>
+        <v>7402458</v>
       </c>
       <c r="E64">
-        <v>6323474</v>
+        <v>6304942</v>
       </c>
       <c r="F64">
-        <v>6323474</v>
+        <v>6304942</v>
       </c>
       <c r="I64">
         <v>13356727</v>
@@ -3468,35 +2654,23 @@
       <c r="L64">
         <v>6112598</v>
       </c>
-      <c r="N64">
-        <v>12404145</v>
-      </c>
-      <c r="O64">
-        <v>7402458</v>
-      </c>
-      <c r="P64">
-        <v>6304942</v>
-      </c>
-      <c r="Q64">
-        <v>6304942</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="6"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="8"/>
       <c r="B65" s="1">
         <v>3</v>
       </c>
       <c r="C65">
-        <v>12107652</v>
+        <v>12102549</v>
       </c>
       <c r="D65">
-        <v>7083530</v>
+        <v>7079506</v>
       </c>
       <c r="E65">
-        <v>6119079</v>
+        <v>6126045</v>
       </c>
       <c r="F65">
-        <v>6119079</v>
+        <v>6126045</v>
       </c>
       <c r="I65">
         <v>12919259</v>
@@ -3510,35 +2684,23 @@
       <c r="L65">
         <v>5985538</v>
       </c>
-      <c r="N65">
-        <v>12102549</v>
-      </c>
-      <c r="O65">
-        <v>7079506</v>
-      </c>
-      <c r="P65">
-        <v>6126045</v>
-      </c>
-      <c r="Q65">
-        <v>6126045</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="6"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="8"/>
       <c r="B66" s="1">
         <v>4</v>
       </c>
       <c r="C66">
-        <v>11905414</v>
+        <v>11919372</v>
       </c>
       <c r="D66">
-        <v>7158509</v>
+        <v>7152878</v>
       </c>
       <c r="E66">
-        <v>6236944</v>
+        <v>6242785</v>
       </c>
       <c r="F66">
-        <v>6236944</v>
+        <v>6242785</v>
       </c>
       <c r="I66">
         <v>12705290</v>
@@ -3552,35 +2714,23 @@
       <c r="L66">
         <v>6096729</v>
       </c>
-      <c r="N66">
-        <v>11919372</v>
-      </c>
-      <c r="O66">
-        <v>7152878</v>
-      </c>
-      <c r="P66">
-        <v>6242785</v>
-      </c>
-      <c r="Q66">
-        <v>6242785</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="6"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="8"/>
       <c r="B67" s="1">
         <v>5</v>
       </c>
       <c r="C67">
-        <v>12606576</v>
+        <v>12597957</v>
       </c>
       <c r="D67">
-        <v>7465148</v>
+        <v>7462782</v>
       </c>
       <c r="E67">
-        <v>6511722</v>
+        <v>6511035</v>
       </c>
       <c r="F67">
-        <v>6511722</v>
+        <v>6511035</v>
       </c>
       <c r="I67">
         <v>13276868</v>
@@ -3594,35 +2744,23 @@
       <c r="L67">
         <v>6348242</v>
       </c>
-      <c r="N67">
-        <v>12597957</v>
-      </c>
-      <c r="O67">
-        <v>7462782</v>
-      </c>
-      <c r="P67">
-        <v>6511035</v>
-      </c>
-      <c r="Q67">
-        <v>6511035</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="6"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="8"/>
       <c r="B68" s="1">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>11747867</v>
+        <v>11740512</v>
       </c>
       <c r="D68">
-        <v>7011006</v>
+        <v>7011681</v>
       </c>
       <c r="E68">
-        <v>6206903</v>
+        <v>6204954</v>
       </c>
       <c r="F68">
-        <v>6206903</v>
+        <v>6204954</v>
       </c>
       <c r="I68">
         <v>12236080</v>
@@ -3636,35 +2774,23 @@
       <c r="L68">
         <v>6082142</v>
       </c>
-      <c r="N68">
-        <v>11740512</v>
-      </c>
-      <c r="O68">
-        <v>7011681</v>
-      </c>
-      <c r="P68">
-        <v>6204954</v>
-      </c>
-      <c r="Q68">
-        <v>6204954</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="6"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="8"/>
       <c r="B69" s="1">
         <v>7</v>
       </c>
       <c r="C69">
-        <v>13408593</v>
+        <v>13399165</v>
       </c>
       <c r="D69">
-        <v>7938423</v>
+        <v>7927674</v>
       </c>
       <c r="E69">
-        <v>6886161</v>
+        <v>6864525</v>
       </c>
       <c r="F69">
-        <v>6886161</v>
+        <v>6864525</v>
       </c>
       <c r="I69">
         <v>14160773</v>
@@ -3678,35 +2804,23 @@
       <c r="L69">
         <v>6575879</v>
       </c>
-      <c r="N69">
-        <v>13399165</v>
-      </c>
-      <c r="O69">
-        <v>7927674</v>
-      </c>
-      <c r="P69">
-        <v>6864525</v>
-      </c>
-      <c r="Q69">
-        <v>6864525</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="6"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="8"/>
       <c r="B70" s="1">
         <v>8</v>
       </c>
       <c r="C70">
-        <v>12408088</v>
+        <v>12403387</v>
       </c>
       <c r="D70">
-        <v>7362291</v>
+        <v>7356875</v>
       </c>
       <c r="E70">
-        <v>6276619</v>
+        <v>6262921</v>
       </c>
       <c r="F70">
-        <v>6276619</v>
+        <v>6262921</v>
       </c>
       <c r="I70">
         <v>13314723</v>
@@ -3720,35 +2834,23 @@
       <c r="L70">
         <v>6069658</v>
       </c>
-      <c r="N70">
-        <v>12403387</v>
-      </c>
-      <c r="O70">
-        <v>7356875</v>
-      </c>
-      <c r="P70">
-        <v>6262921</v>
-      </c>
-      <c r="Q70">
-        <v>6262921</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="6"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="8"/>
       <c r="B71" s="1">
         <v>9</v>
       </c>
       <c r="C71">
-        <v>11872126</v>
+        <v>11871992</v>
       </c>
       <c r="D71">
-        <v>7163247</v>
+        <v>7158556</v>
       </c>
       <c r="E71">
-        <v>6334786</v>
+        <v>6336840</v>
       </c>
       <c r="F71">
-        <v>6334786</v>
+        <v>6336840</v>
       </c>
       <c r="I71">
         <v>12433821</v>
@@ -3762,35 +2864,23 @@
       <c r="L71">
         <v>6188416</v>
       </c>
-      <c r="N71">
-        <v>11871992</v>
-      </c>
-      <c r="O71">
-        <v>7158556</v>
-      </c>
-      <c r="P71">
-        <v>6336840</v>
-      </c>
-      <c r="Q71">
-        <v>6336840</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="6"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="8"/>
       <c r="B72" s="1">
         <v>10</v>
       </c>
       <c r="C72">
-        <v>12551228</v>
+        <v>12545399</v>
       </c>
       <c r="D72">
-        <v>7394273</v>
+        <v>7392734</v>
       </c>
       <c r="E72">
-        <v>6340372</v>
+        <v>6348553</v>
       </c>
       <c r="F72">
-        <v>6340372</v>
+        <v>6348553</v>
       </c>
       <c r="I72">
         <v>13395234</v>
@@ -3804,22 +2894,9 @@
       <c r="L72">
         <v>6147295</v>
       </c>
-      <c r="N72">
-        <v>12545399</v>
-      </c>
-      <c r="O72">
-        <v>7392734</v>
-      </c>
-      <c r="P72">
-        <v>6348553</v>
-      </c>
-      <c r="Q72">
-        <v>6348553</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="N1:Q1"/>
+  <mergeCells count="9">
     <mergeCell ref="A63:A72"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="I1:L1"/>
@@ -3831,33 +2908,18 @@
     <mergeCell ref="A53:A62"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:F72">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>C3&lt;=I3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:Q72">
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>N3&lt;=C3</formula>
+  <conditionalFormatting sqref="N21">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>N21&lt;H21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T21">
-    <cfRule type="expression" dxfId="10" priority="4">
-      <formula>T21&lt;I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:Q72">
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>N3&lt;=I3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S21">
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>S21&lt;H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S21">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>S21&lt;=N21</formula>
+  <conditionalFormatting sqref="N21">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>N21&lt;=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
